--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -795,7 +795,7 @@
         <v>130789469</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130754287</v>
+        <v>130789471</v>
       </c>
       <c r="B4" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,39 +911,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490501</v>
+        <v>490498</v>
       </c>
       <c r="R4" t="n">
-        <v>6763773</v>
+        <v>6763669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -975,7 +970,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -985,7 +980,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -994,28 +989,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130789471</v>
+        <v>130754287</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1023,34 +1019,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490498</v>
+        <v>490501</v>
       </c>
       <c r="R5" t="n">
-        <v>6763669</v>
+        <v>6763773</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1082,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1092,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1101,19 +1102,18 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1123,7 +1123,7 @@
         <v>130758328</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755448</v>
+        <v>130789490</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1258,14 +1258,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490441</v>
+        <v>490470</v>
       </c>
       <c r="R7" t="n">
-        <v>6763800</v>
+        <v>6763909</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1316,28 +1316,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789490</v>
+        <v>130755448</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1365,14 +1366,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490470</v>
+        <v>490441</v>
       </c>
       <c r="R8" t="n">
-        <v>6763909</v>
+        <v>6763800</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1404,7 +1405,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1414,7 +1415,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1423,29 +1424,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789496</v>
+        <v>130789477</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490526</v>
+        <v>490435</v>
       </c>
       <c r="R9" t="n">
-        <v>6763737</v>
+        <v>6764047</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1550,10 +1550,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789482</v>
+        <v>130789496</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490451</v>
+        <v>490526</v>
       </c>
       <c r="R10" t="n">
-        <v>6764011</v>
+        <v>6763737</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789477</v>
+        <v>130789482</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490435</v>
+        <v>490451</v>
       </c>
       <c r="R11" t="n">
-        <v>6764047</v>
+        <v>6764011</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1766,45 +1766,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130758082</v>
+        <v>130757655</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490186</v>
+        <v>490214</v>
       </c>
       <c r="R12" t="n">
-        <v>6763602</v>
+        <v>6763590</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1873,50 +1878,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130757655</v>
+        <v>130758082</v>
       </c>
       <c r="B13" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490214</v>
+        <v>490186</v>
       </c>
       <c r="R13" t="n">
-        <v>6763590</v>
+        <v>6763602</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1988,7 +1988,7 @@
         <v>130754257</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>130754083</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>130789470</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>130757152</v>
       </c>
       <c r="B17" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>130789473</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>130757425</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>130754307</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>130757199</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>130789474</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>130755955</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>130789495</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>130754985</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>130754896</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130757159</v>
+        <v>130755667</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,34 +3415,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490482</v>
+        <v>490444</v>
       </c>
       <c r="R27" t="n">
-        <v>6763574</v>
+        <v>6763770</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,7 +3479,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3484,7 +3489,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3511,10 +3521,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130789472</v>
+        <v>130757159</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3546,10 +3556,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490450</v>
+        <v>490482</v>
       </c>
       <c r="R28" t="n">
-        <v>6763926</v>
+        <v>6763574</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3581,7 +3591,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3591,7 +3601,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3600,29 +3610,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130754796</v>
+        <v>130789472</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3654,10 +3663,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490463</v>
+        <v>490450</v>
       </c>
       <c r="R29" t="n">
-        <v>6763939</v>
+        <v>6763926</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3699,7 +3708,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3708,28 +3717,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755667</v>
+        <v>130754796</v>
       </c>
       <c r="B30" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3737,39 +3747,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490444</v>
+        <v>490463</v>
       </c>
       <c r="R30" t="n">
-        <v>6763770</v>
+        <v>6763939</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3812,11 +3817,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3843,50 +3843,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130757236</v>
+        <v>130789476</v>
       </c>
       <c r="B31" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490467</v>
+        <v>490438</v>
       </c>
       <c r="R31" t="n">
-        <v>6763573</v>
+        <v>6764018</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3918,7 +3913,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3928,7 +3923,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3937,28 +3932,29 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130789476</v>
+        <v>130789475</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3990,10 +3986,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490438</v>
+        <v>490441</v>
       </c>
       <c r="R32" t="n">
-        <v>6764018</v>
+        <v>6763984</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4025,7 +4021,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4035,7 +4031,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4063,45 +4059,50 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130789475</v>
+        <v>130757236</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>5177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490441</v>
+        <v>490467</v>
       </c>
       <c r="R33" t="n">
-        <v>6763984</v>
+        <v>6763573</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4133,7 +4134,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4143,7 +4144,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4152,19 +4153,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4286,7 +4286,7 @@
         <v>130754851</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>130757412</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>130789468</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130755062</v>
+        <v>130789489</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4733,39 +4733,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>490434</v>
+        <v>490467</v>
       </c>
       <c r="R39" t="n">
-        <v>6764045</v>
+        <v>6763913</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4797,7 +4792,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4807,12 +4802,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>1 bild</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4821,28 +4811,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130789489</v>
+        <v>130789487</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4874,10 +4865,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490467</v>
+        <v>490472</v>
       </c>
       <c r="R40" t="n">
-        <v>6763913</v>
+        <v>6763924</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4909,7 +4900,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4919,7 +4910,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4947,10 +4938,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130789487</v>
+        <v>130789497</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4982,10 +4973,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490472</v>
+        <v>490525</v>
       </c>
       <c r="R41" t="n">
-        <v>6763924</v>
+        <v>6763706</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5017,7 +5008,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5027,7 +5018,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5055,10 +5046,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130789497</v>
+        <v>130755409</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5086,14 +5077,14 @@
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490525</v>
+        <v>490447</v>
       </c>
       <c r="R42" t="n">
-        <v>6763706</v>
+        <v>6763817</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5125,7 +5116,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5135,7 +5126,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5144,29 +5135,28 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755409</v>
+        <v>130757564</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5194,14 +5184,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490447</v>
+        <v>490230</v>
       </c>
       <c r="R43" t="n">
-        <v>6763817</v>
+        <v>6763582</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5233,7 +5223,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5243,7 +5233,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5270,10 +5260,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130757564</v>
+        <v>130755062</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5281,34 +5271,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490230</v>
+        <v>490434</v>
       </c>
       <c r="R44" t="n">
-        <v>6763582</v>
+        <v>6764045</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5340,7 +5335,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5350,7 +5345,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5492,7 +5492,7 @@
         <v>130754014</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>130754953</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>130789459</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>130758032</v>
       </c>
       <c r="B49" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>130758572</v>
       </c>
       <c r="B50" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>130789491</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>130789493</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>130789498</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>130789492</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6472,45 +6472,50 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130789494</v>
+        <v>130755323</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490480</v>
+        <v>490451</v>
       </c>
       <c r="R55" t="n">
-        <v>6763872</v>
+        <v>6763833</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6542,7 +6547,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6552,7 +6557,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6561,69 +6566,63 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130755323</v>
+        <v>130789494</v>
       </c>
       <c r="B56" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490451</v>
+        <v>490480</v>
       </c>
       <c r="R56" t="n">
-        <v>6763833</v>
+        <v>6763872</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6655,7 +6654,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6665,7 +6664,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6674,18 +6673,19 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
@@ -6695,7 +6695,7 @@
         <v>130817408</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>130816918</v>
       </c>
       <c r="B58" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>130817398</v>
       </c>
       <c r="B59" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -3404,10 +3404,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755667</v>
+        <v>130757159</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,39 +3415,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490444</v>
+        <v>490482</v>
       </c>
       <c r="R27" t="n">
-        <v>6763770</v>
+        <v>6763574</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3479,7 +3474,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3489,12 +3484,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3521,7 +3511,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130757159</v>
+        <v>130789472</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3556,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490482</v>
+        <v>490450</v>
       </c>
       <c r="R28" t="n">
-        <v>6763574</v>
+        <v>6763926</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3591,7 +3581,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3601,7 +3591,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3610,25 +3600,26 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130789472</v>
+        <v>130754796</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3663,10 +3654,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490450</v>
+        <v>490463</v>
       </c>
       <c r="R29" t="n">
-        <v>6763926</v>
+        <v>6763939</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3698,7 +3689,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3708,7 +3699,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3717,29 +3708,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130754796</v>
+        <v>130755667</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3747,34 +3737,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490463</v>
+        <v>490444</v>
       </c>
       <c r="R30" t="n">
-        <v>6763939</v>
+        <v>6763770</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3817,6 +3812,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -5377,50 +5377,45 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130758028</v>
+        <v>130754014</v>
       </c>
       <c r="B45" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490175</v>
+        <v>490548</v>
       </c>
       <c r="R45" t="n">
-        <v>6763613</v>
+        <v>6763654</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5452,7 +5447,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5462,7 +5457,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5489,7 +5484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130754014</v>
+        <v>130754953</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5520,14 +5515,14 @@
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490548</v>
+        <v>490440</v>
       </c>
       <c r="R46" t="n">
-        <v>6763654</v>
+        <v>6764028</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5570,6 +5565,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>1 bild. Rikligt på gran</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5596,45 +5596,50 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130754953</v>
+        <v>130758028</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>490440</v>
+        <v>490175</v>
       </c>
       <c r="R47" t="n">
-        <v>6764028</v>
+        <v>6763613</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5666,7 +5671,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5676,12 +5681,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>1 bild. Rikligt på gran</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130789471</v>
+        <v>130754287</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,34 +911,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490498</v>
+        <v>490501</v>
       </c>
       <c r="R4" t="n">
-        <v>6763669</v>
+        <v>6763773</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +975,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -980,7 +985,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -989,29 +994,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130754287</v>
+        <v>130789471</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1019,39 +1023,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490501</v>
+        <v>490498</v>
       </c>
       <c r="R5" t="n">
-        <v>6763773</v>
+        <v>6763669</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,7 +1082,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1093,7 +1092,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1102,18 +1101,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130789490</v>
+        <v>130755448</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1258,14 +1258,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490470</v>
+        <v>490441</v>
       </c>
       <c r="R7" t="n">
-        <v>6763909</v>
+        <v>6763800</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1316,26 +1316,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755448</v>
+        <v>130789490</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1366,14 +1365,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490441</v>
+        <v>490470</v>
       </c>
       <c r="R8" t="n">
-        <v>6763800</v>
+        <v>6763909</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,7 +1404,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1415,7 +1414,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1424,25 +1423,26 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789477</v>
+        <v>130789496</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490435</v>
+        <v>490526</v>
       </c>
       <c r="R9" t="n">
-        <v>6764047</v>
+        <v>6763737</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789496</v>
+        <v>130789482</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490526</v>
+        <v>490451</v>
       </c>
       <c r="R10" t="n">
-        <v>6763737</v>
+        <v>6764011</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789482</v>
+        <v>130789477</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490451</v>
+        <v>490435</v>
       </c>
       <c r="R11" t="n">
-        <v>6764011</v>
+        <v>6764047</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2097,10 +2097,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130754083</v>
+        <v>130757152</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2108,37 +2108,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490529</v>
+        <v>490482</v>
       </c>
       <c r="R15" t="n">
-        <v>6763665</v>
+        <v>6763574</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2170,7 +2172,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2180,12 +2182,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>1 bild, tall med gran till vänster</t>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2194,7 +2196,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2321,10 +2322,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130757152</v>
+        <v>130754083</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2332,39 +2333,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>490482</v>
+        <v>490529</v>
       </c>
       <c r="R17" t="n">
-        <v>6763574</v>
+        <v>6763665</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2396,7 +2395,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2406,12 +2405,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1 bild</t>
+          <t>1 bild, tall med gran till vänster</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2420,6 +2419,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130789473</v>
+        <v>130757425</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490444</v>
+        <v>490361</v>
       </c>
       <c r="R18" t="n">
-        <v>6763969</v>
+        <v>6763574</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2527,26 +2527,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130757425</v>
+        <v>130757199</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2581,10 +2580,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490361</v>
+        <v>490467</v>
       </c>
       <c r="R19" t="n">
-        <v>6763574</v>
+        <v>6763573</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2653,7 +2652,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130754307</v>
+        <v>130789473</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2688,10 +2687,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490501</v>
+        <v>490444</v>
       </c>
       <c r="R20" t="n">
-        <v>6763773</v>
+        <v>6763969</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2723,7 +2722,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2733,7 +2732,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2742,25 +2741,26 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130757199</v>
+        <v>130754307</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490467</v>
+        <v>490501</v>
       </c>
       <c r="R21" t="n">
-        <v>6763573</v>
+        <v>6763773</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3190,7 +3190,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130754985</v>
+        <v>130754896</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490434</v>
+        <v>490446</v>
       </c>
       <c r="R25" t="n">
-        <v>6764045</v>
+        <v>6764008</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130754896</v>
+        <v>130754985</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490446</v>
+        <v>490434</v>
       </c>
       <c r="R26" t="n">
-        <v>6764008</v>
+        <v>6764045</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130757159</v>
+        <v>130789472</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490482</v>
+        <v>490450</v>
       </c>
       <c r="R27" t="n">
-        <v>6763574</v>
+        <v>6763926</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3493,25 +3493,26 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130789472</v>
+        <v>130757159</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3546,10 +3547,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490450</v>
+        <v>490482</v>
       </c>
       <c r="R28" t="n">
-        <v>6763926</v>
+        <v>6763574</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3581,7 +3582,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3591,7 +3592,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3600,19 +3601,18 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -3843,45 +3843,50 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130789476</v>
+        <v>130757715</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490438</v>
+        <v>490186</v>
       </c>
       <c r="R31" t="n">
-        <v>6764018</v>
+        <v>6763602</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3913,7 +3918,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3923,7 +3928,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3932,64 +3937,68 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130789475</v>
+        <v>130757236</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490441</v>
+        <v>490467</v>
       </c>
       <c r="R32" t="n">
-        <v>6763984</v>
+        <v>6763573</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4031,7 +4040,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4040,69 +4049,63 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130757236</v>
+        <v>130789476</v>
       </c>
       <c r="B33" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490467</v>
+        <v>490438</v>
       </c>
       <c r="R33" t="n">
-        <v>6763573</v>
+        <v>6764018</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4134,7 +4137,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4144,7 +4147,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4153,68 +4156,64 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130757715</v>
+        <v>130789475</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490186</v>
+        <v>490441</v>
       </c>
       <c r="R34" t="n">
-        <v>6763602</v>
+        <v>6763984</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4256,7 +4255,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4265,25 +4264,26 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130754851</v>
+        <v>130789468</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490449</v>
+        <v>490321</v>
       </c>
       <c r="R35" t="n">
-        <v>6763949</v>
+        <v>6763593</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4363,12 +4363,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4377,25 +4372,26 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130757412</v>
+        <v>130754851</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4430,10 +4426,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490381</v>
+        <v>490449</v>
       </c>
       <c r="R36" t="n">
-        <v>6763583</v>
+        <v>6763949</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4465,7 +4461,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4475,7 +4471,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4502,7 +4503,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130789468</v>
+        <v>130757412</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4537,10 +4538,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490321</v>
+        <v>490381</v>
       </c>
       <c r="R37" t="n">
-        <v>6763593</v>
+        <v>6763583</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4572,7 +4573,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4582,7 +4583,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4591,19 +4592,18 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130789489</v>
+        <v>130789497</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>490467</v>
+        <v>490525</v>
       </c>
       <c r="R39" t="n">
-        <v>6763913</v>
+        <v>6763706</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4830,10 +4830,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130789487</v>
+        <v>130755062</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4841,34 +4841,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490472</v>
+        <v>490434</v>
       </c>
       <c r="R40" t="n">
-        <v>6763924</v>
+        <v>6764045</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4900,7 +4905,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4910,7 +4915,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4919,26 +4929,25 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130789497</v>
+        <v>130789487</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4973,10 +4982,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490525</v>
+        <v>490472</v>
       </c>
       <c r="R41" t="n">
-        <v>6763706</v>
+        <v>6763924</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5008,7 +5017,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5018,7 +5027,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5046,7 +5055,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130755409</v>
+        <v>130757564</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5077,14 +5086,14 @@
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490447</v>
+        <v>490230</v>
       </c>
       <c r="R42" t="n">
-        <v>6763817</v>
+        <v>6763582</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5116,7 +5125,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5126,7 +5135,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5153,7 +5162,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130757564</v>
+        <v>130789489</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5184,14 +5193,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490230</v>
+        <v>490467</v>
       </c>
       <c r="R43" t="n">
-        <v>6763582</v>
+        <v>6763913</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5223,7 +5232,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5233,7 +5242,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5242,28 +5251,29 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755062</v>
+        <v>130755409</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5271,39 +5281,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490434</v>
+        <v>490447</v>
       </c>
       <c r="R44" t="n">
-        <v>6764045</v>
+        <v>6763817</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5346,11 +5351,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>1 bild</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5708,10 +5708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130789459</v>
+        <v>130758572</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5719,34 +5719,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490499</v>
+        <v>490494</v>
       </c>
       <c r="R48" t="n">
-        <v>6763662</v>
+        <v>6763540</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5778,7 +5783,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5788,12 +5793,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>vid gran 250 år plus</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5802,19 +5802,18 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
@@ -5928,10 +5927,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130758572</v>
+        <v>130789459</v>
       </c>
       <c r="B50" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5939,39 +5938,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>490494</v>
+        <v>490499</v>
       </c>
       <c r="R50" t="n">
-        <v>6763540</v>
+        <v>6763662</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6003,7 +5997,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6013,7 +6007,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>vid gran 250 år plus</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6022,25 +6021,26 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130789491</v>
+        <v>130789492</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6078,7 +6078,7 @@
         <v>490481</v>
       </c>
       <c r="R51" t="n">
-        <v>6763891</v>
+        <v>6763889</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130789492</v>
+        <v>130789491</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6402,7 +6402,7 @@
         <v>490481</v>
       </c>
       <c r="R54" t="n">
-        <v>6763889</v>
+        <v>6763891</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6472,50 +6472,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130755323</v>
+        <v>130789494</v>
       </c>
       <c r="B55" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490451</v>
+        <v>490480</v>
       </c>
       <c r="R55" t="n">
-        <v>6763833</v>
+        <v>6763872</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6547,7 +6542,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6557,7 +6552,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6566,63 +6561,69 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130789494</v>
+        <v>130755323</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490480</v>
+        <v>490451</v>
       </c>
       <c r="R56" t="n">
-        <v>6763872</v>
+        <v>6763833</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6654,7 +6655,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6664,7 +6665,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6673,19 +6674,18 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130754287</v>
+        <v>130789471</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,39 +911,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490501</v>
+        <v>490498</v>
       </c>
       <c r="R4" t="n">
-        <v>6763773</v>
+        <v>6763669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -975,7 +970,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -985,7 +980,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -994,28 +989,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130789471</v>
+        <v>130754287</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1023,34 +1019,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490498</v>
+        <v>490501</v>
       </c>
       <c r="R5" t="n">
-        <v>6763669</v>
+        <v>6763773</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1082,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1092,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1101,19 +1102,18 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1766,50 +1766,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130757655</v>
+        <v>130758082</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490214</v>
+        <v>490186</v>
       </c>
       <c r="R12" t="n">
-        <v>6763590</v>
+        <v>6763602</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1878,45 +1873,50 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130758082</v>
+        <v>130757655</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490186</v>
+        <v>490214</v>
       </c>
       <c r="R13" t="n">
-        <v>6763602</v>
+        <v>6763590</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -4283,45 +4283,50 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130789468</v>
+        <v>130757247</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>5197</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490321</v>
+        <v>490467</v>
       </c>
       <c r="R35" t="n">
-        <v>6763593</v>
+        <v>6763573</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4353,7 +4358,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4363,7 +4368,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4372,26 +4377,25 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130754851</v>
+        <v>130789468</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4426,10 +4430,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490449</v>
+        <v>490321</v>
       </c>
       <c r="R36" t="n">
-        <v>6763949</v>
+        <v>6763593</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4461,7 +4465,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4471,12 +4475,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4485,25 +4484,26 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130757412</v>
+        <v>130754851</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4538,10 +4538,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490381</v>
+        <v>490449</v>
       </c>
       <c r="R37" t="n">
-        <v>6763583</v>
+        <v>6763949</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4583,7 +4583,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4610,50 +4615,45 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130757247</v>
+        <v>130757412</v>
       </c>
       <c r="B38" t="n">
-        <v>5197</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>490467</v>
+        <v>490381</v>
       </c>
       <c r="R38" t="n">
-        <v>6763573</v>
+        <v>6763583</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -1227,7 +1227,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755448</v>
+        <v>130789490</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1258,14 +1258,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490441</v>
+        <v>490470</v>
       </c>
       <c r="R7" t="n">
-        <v>6763800</v>
+        <v>6763909</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1316,25 +1316,26 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130789490</v>
+        <v>130755448</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1365,14 +1366,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490470</v>
+        <v>490441</v>
       </c>
       <c r="R8" t="n">
-        <v>6763909</v>
+        <v>6763800</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1404,7 +1405,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1414,7 +1415,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1423,19 +1424,18 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789482</v>
+        <v>130789477</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490451</v>
+        <v>490435</v>
       </c>
       <c r="R10" t="n">
-        <v>6764011</v>
+        <v>6764047</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789477</v>
+        <v>130789482</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490435</v>
+        <v>490451</v>
       </c>
       <c r="R11" t="n">
-        <v>6764047</v>
+        <v>6764011</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2097,10 +2097,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130757152</v>
+        <v>130789470</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2108,39 +2108,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490482</v>
+        <v>490376</v>
       </c>
       <c r="R15" t="n">
-        <v>6763574</v>
+        <v>6763596</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2172,7 +2167,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2182,12 +2177,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:01</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1 bild</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,28 +2186,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130789470</v>
+        <v>130757152</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2225,34 +2216,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490376</v>
+        <v>490482</v>
       </c>
       <c r="R16" t="n">
-        <v>6763596</v>
+        <v>6763574</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2284,7 +2280,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2294,7 +2290,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,19 +2304,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130757425</v>
+        <v>130754307</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490361</v>
+        <v>490501</v>
       </c>
       <c r="R18" t="n">
-        <v>6763574</v>
+        <v>6763773</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2652,7 +2652,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130789473</v>
+        <v>130757425</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490444</v>
+        <v>490361</v>
       </c>
       <c r="R20" t="n">
-        <v>6763969</v>
+        <v>6763574</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2741,26 +2741,25 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130754307</v>
+        <v>130789473</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2795,10 +2794,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490501</v>
+        <v>490444</v>
       </c>
       <c r="R21" t="n">
-        <v>6763773</v>
+        <v>6763969</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,7 +2829,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2840,7 +2839,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2849,18 +2848,19 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130754896</v>
+        <v>130754985</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490446</v>
+        <v>490434</v>
       </c>
       <c r="R25" t="n">
-        <v>6764008</v>
+        <v>6764045</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130754985</v>
+        <v>130754896</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490434</v>
+        <v>490446</v>
       </c>
       <c r="R26" t="n">
-        <v>6764045</v>
+        <v>6764008</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130789472</v>
+        <v>130754796</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490450</v>
+        <v>490463</v>
       </c>
       <c r="R27" t="n">
-        <v>6763926</v>
+        <v>6763939</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3493,19 +3493,18 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3619,7 +3618,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130754796</v>
+        <v>130789472</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3654,10 +3653,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490463</v>
+        <v>490450</v>
       </c>
       <c r="R29" t="n">
-        <v>6763939</v>
+        <v>6763926</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3689,7 +3688,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3699,7 +3698,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3708,18 +3707,19 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -3843,50 +3843,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130757715</v>
+        <v>130789476</v>
       </c>
       <c r="B31" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490186</v>
+        <v>490438</v>
       </c>
       <c r="R31" t="n">
-        <v>6763602</v>
+        <v>6764018</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3918,7 +3913,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3928,7 +3923,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3937,28 +3932,29 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130757236</v>
+        <v>130757715</v>
       </c>
       <c r="B32" t="n">
-        <v>5177</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3966,21 +3962,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3991,14 +3987,14 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490467</v>
+        <v>490186</v>
       </c>
       <c r="R32" t="n">
-        <v>6763573</v>
+        <v>6763602</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4067,45 +4063,50 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130789476</v>
+        <v>130757236</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490438</v>
+        <v>490467</v>
       </c>
       <c r="R33" t="n">
-        <v>6764018</v>
+        <v>6763573</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4137,7 +4138,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4147,7 +4148,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4156,19 +4157,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4283,50 +4283,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130757247</v>
+        <v>130754851</v>
       </c>
       <c r="B35" t="n">
-        <v>5197</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490467</v>
+        <v>490449</v>
       </c>
       <c r="R35" t="n">
-        <v>6763573</v>
+        <v>6763949</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4358,7 +4353,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4368,7 +4363,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4503,45 +4503,50 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130754851</v>
+        <v>130757247</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>5197</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490449</v>
+        <v>490467</v>
       </c>
       <c r="R37" t="n">
-        <v>6763949</v>
+        <v>6763573</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4573,7 +4578,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4583,12 +4588,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130789497</v>
+        <v>130757564</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4753,14 +4753,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>490525</v>
+        <v>490230</v>
       </c>
       <c r="R39" t="n">
-        <v>6763706</v>
+        <v>6763582</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4811,29 +4811,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755062</v>
+        <v>130789497</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4841,39 +4840,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490434</v>
+        <v>490525</v>
       </c>
       <c r="R40" t="n">
-        <v>6764045</v>
+        <v>6763706</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4905,7 +4899,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4915,12 +4909,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>1 bild</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4929,25 +4918,26 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130789487</v>
+        <v>130789489</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4982,10 +4972,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490472</v>
+        <v>490467</v>
       </c>
       <c r="R41" t="n">
-        <v>6763924</v>
+        <v>6763913</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5017,7 +5007,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5027,7 +5017,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5055,7 +5045,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130757564</v>
+        <v>130755409</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5086,14 +5076,14 @@
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490230</v>
+        <v>490447</v>
       </c>
       <c r="R42" t="n">
-        <v>6763582</v>
+        <v>6763817</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5125,7 +5115,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5135,7 +5125,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5162,7 +5152,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130789489</v>
+        <v>130789487</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5197,10 +5187,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490467</v>
+        <v>490472</v>
       </c>
       <c r="R43" t="n">
-        <v>6763913</v>
+        <v>6763924</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5232,7 +5222,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5242,7 +5232,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5270,10 +5260,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755409</v>
+        <v>130755062</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5281,34 +5271,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490447</v>
+        <v>490434</v>
       </c>
       <c r="R44" t="n">
-        <v>6763817</v>
+        <v>6764045</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5351,6 +5346,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5377,45 +5377,50 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130754014</v>
+        <v>130758028</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490548</v>
+        <v>490175</v>
       </c>
       <c r="R45" t="n">
-        <v>6763654</v>
+        <v>6763613</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5447,7 +5452,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5457,7 +5462,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5484,7 +5489,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130754953</v>
+        <v>130754014</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5515,14 +5520,14 @@
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490440</v>
+        <v>490548</v>
       </c>
       <c r="R46" t="n">
-        <v>6764028</v>
+        <v>6763654</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5565,11 +5570,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>1 bild. Rikligt på gran</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5596,50 +5596,45 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130758028</v>
+        <v>130754953</v>
       </c>
       <c r="B47" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>490175</v>
+        <v>490440</v>
       </c>
       <c r="R47" t="n">
-        <v>6763613</v>
+        <v>6764028</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5671,7 +5666,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5681,7 +5676,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>1 bild. Rikligt på gran</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5708,10 +5708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130758572</v>
+        <v>130758032</v>
       </c>
       <c r="B48" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5719,39 +5719,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490494</v>
+        <v>490175</v>
       </c>
       <c r="R48" t="n">
-        <v>6763540</v>
+        <v>6763613</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5820,10 +5815,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130758032</v>
+        <v>130758572</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5831,34 +5826,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490175</v>
+        <v>490494</v>
       </c>
       <c r="R49" t="n">
-        <v>6763613</v>
+        <v>6763540</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130789492</v>
+        <v>130789491</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6078,7 +6078,7 @@
         <v>490481</v>
       </c>
       <c r="R51" t="n">
-        <v>6763889</v>
+        <v>6763891</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6256,7 +6256,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130789498</v>
+        <v>130789492</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6291,10 +6291,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>490523</v>
+        <v>490481</v>
       </c>
       <c r="R53" t="n">
-        <v>6763700</v>
+        <v>6763889</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130789491</v>
+        <v>130789498</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490481</v>
+        <v>490523</v>
       </c>
       <c r="R54" t="n">
-        <v>6763891</v>
+        <v>6763700</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD54" t="b">

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -2205,10 +2205,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130757152</v>
+        <v>130754083</v>
       </c>
       <c r="B16" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2216,39 +2216,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490482</v>
+        <v>490529</v>
       </c>
       <c r="R16" t="n">
-        <v>6763574</v>
+        <v>6763665</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2280,7 +2278,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2290,12 +2288,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>1 bild</t>
+          <t>1 bild, tall med gran till vänster</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2304,6 +2302,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2322,10 +2321,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130754083</v>
+        <v>130757152</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2333,37 +2332,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>490529</v>
+        <v>490482</v>
       </c>
       <c r="R17" t="n">
-        <v>6763665</v>
+        <v>6763574</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2395,7 +2396,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2405,12 +2406,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1 bild, tall med gran till vänster</t>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2419,7 +2420,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130754307</v>
+        <v>130789473</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490501</v>
+        <v>490444</v>
       </c>
       <c r="R18" t="n">
-        <v>6763773</v>
+        <v>6763969</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2527,25 +2527,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130757199</v>
+        <v>130757425</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2580,10 +2581,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490467</v>
+        <v>490361</v>
       </c>
       <c r="R19" t="n">
-        <v>6763573</v>
+        <v>6763574</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2652,7 +2653,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130757425</v>
+        <v>130754307</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2687,10 +2688,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490361</v>
+        <v>490501</v>
       </c>
       <c r="R20" t="n">
-        <v>6763574</v>
+        <v>6763773</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2722,7 +2723,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2732,7 +2733,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2759,7 +2760,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130789473</v>
+        <v>130757199</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2794,10 +2795,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490444</v>
+        <v>490467</v>
       </c>
       <c r="R21" t="n">
-        <v>6763969</v>
+        <v>6763573</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2829,7 +2830,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2839,7 +2840,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2848,19 +2849,18 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130754796</v>
+        <v>130755667</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,34 +3415,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490463</v>
+        <v>490444</v>
       </c>
       <c r="R27" t="n">
-        <v>6763939</v>
+        <v>6763770</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3485,6 +3490,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3726,10 +3736,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755667</v>
+        <v>130754796</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3737,39 +3747,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490444</v>
+        <v>490463</v>
       </c>
       <c r="R30" t="n">
-        <v>6763770</v>
+        <v>6763939</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3812,11 +3817,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3951,50 +3951,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130757715</v>
+        <v>130789475</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490186</v>
+        <v>490441</v>
       </c>
       <c r="R32" t="n">
-        <v>6763602</v>
+        <v>6763984</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4026,7 +4021,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4036,7 +4031,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4045,18 +4040,19 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
@@ -4175,45 +4171,50 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130789475</v>
+        <v>130757715</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490441</v>
+        <v>490186</v>
       </c>
       <c r="R34" t="n">
-        <v>6763984</v>
+        <v>6763602</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4245,7 +4246,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4255,7 +4256,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,26 +4265,25 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130754851</v>
+        <v>130789468</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490449</v>
+        <v>490321</v>
       </c>
       <c r="R35" t="n">
-        <v>6763949</v>
+        <v>6763593</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4363,12 +4363,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4377,63 +4372,69 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130789468</v>
+        <v>130757247</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>5197</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490321</v>
+        <v>490467</v>
       </c>
       <c r="R36" t="n">
-        <v>6763593</v>
+        <v>6763573</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4465,7 +4466,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4475,7 +4476,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4484,69 +4485,63 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130757247</v>
+        <v>130754851</v>
       </c>
       <c r="B37" t="n">
-        <v>5197</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490467</v>
+        <v>490449</v>
       </c>
       <c r="R37" t="n">
-        <v>6763573</v>
+        <v>6763949</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4578,7 +4573,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4588,7 +4583,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130757564</v>
+        <v>130789487</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4753,14 +4753,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>490230</v>
+        <v>490472</v>
       </c>
       <c r="R39" t="n">
-        <v>6763582</v>
+        <v>6763924</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4811,25 +4811,26 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130789497</v>
+        <v>130789489</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4864,10 +4865,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490525</v>
+        <v>490467</v>
       </c>
       <c r="R40" t="n">
-        <v>6763706</v>
+        <v>6763913</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4899,7 +4900,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4909,7 +4910,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4937,7 +4938,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130789489</v>
+        <v>130789497</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4972,10 +4973,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490467</v>
+        <v>490525</v>
       </c>
       <c r="R41" t="n">
-        <v>6763913</v>
+        <v>6763706</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5007,7 +5008,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5017,7 +5018,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5152,7 +5153,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130789487</v>
+        <v>130757564</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5183,14 +5184,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490472</v>
+        <v>490230</v>
       </c>
       <c r="R43" t="n">
-        <v>6763924</v>
+        <v>6763582</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5222,7 +5223,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5232,7 +5233,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5241,19 +5242,18 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130789492</v>
+        <v>130789498</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6291,10 +6291,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>490481</v>
+        <v>490523</v>
       </c>
       <c r="R53" t="n">
-        <v>6763889</v>
+        <v>6763700</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130789498</v>
+        <v>130789492</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490523</v>
+        <v>490481</v>
       </c>
       <c r="R54" t="n">
-        <v>6763700</v>
+        <v>6763889</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD54" t="b">

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130789471</v>
+        <v>130754287</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,34 +911,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490498</v>
+        <v>490501</v>
       </c>
       <c r="R4" t="n">
-        <v>6763669</v>
+        <v>6763773</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +975,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -980,7 +985,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -989,29 +994,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130754287</v>
+        <v>130789471</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1019,39 +1023,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490501</v>
+        <v>490498</v>
       </c>
       <c r="R5" t="n">
-        <v>6763773</v>
+        <v>6763669</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,7 +1082,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1093,7 +1092,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1102,18 +1101,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789477</v>
+        <v>130789482</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490435</v>
+        <v>490451</v>
       </c>
       <c r="R10" t="n">
-        <v>6764047</v>
+        <v>6764011</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789482</v>
+        <v>130789477</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490451</v>
+        <v>490435</v>
       </c>
       <c r="R11" t="n">
-        <v>6764011</v>
+        <v>6764047</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130789470</v>
+        <v>130754083</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2126,16 +2126,19 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490376</v>
+        <v>490529</v>
       </c>
       <c r="R15" t="n">
-        <v>6763596</v>
+        <v>6763665</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2167,7 +2170,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2177,7 +2180,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>1 bild, tall med gran till vänster</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2193,19 +2201,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130754083</v>
+        <v>130789470</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2234,19 +2242,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490529</v>
+        <v>490376</v>
       </c>
       <c r="R16" t="n">
-        <v>6763665</v>
+        <v>6763596</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2278,7 +2283,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2288,12 +2293,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>1 bild, tall med gran till vänster</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2309,12 +2309,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130757425</v>
+        <v>130757199</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490361</v>
+        <v>490467</v>
       </c>
       <c r="R19" t="n">
-        <v>6763574</v>
+        <v>6763573</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130754307</v>
+        <v>130757425</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490501</v>
+        <v>490361</v>
       </c>
       <c r="R20" t="n">
-        <v>6763773</v>
+        <v>6763574</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130757199</v>
+        <v>130754307</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490467</v>
+        <v>490501</v>
       </c>
       <c r="R21" t="n">
-        <v>6763573</v>
+        <v>6763773</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3082,7 +3082,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130789495</v>
+        <v>130754985</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3113,14 +3113,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>490496</v>
+        <v>490434</v>
       </c>
       <c r="R24" t="n">
-        <v>6763849</v>
+        <v>6764045</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3171,26 +3171,25 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130754985</v>
+        <v>130754896</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3225,10 +3224,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490434</v>
+        <v>490446</v>
       </c>
       <c r="R25" t="n">
-        <v>6764045</v>
+        <v>6764008</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3296,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130754896</v>
+        <v>130789495</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3328,14 +3327,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490446</v>
+        <v>490496</v>
       </c>
       <c r="R26" t="n">
-        <v>6764008</v>
+        <v>6763849</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3367,7 +3366,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3377,7 +3376,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3386,28 +3385,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755667</v>
+        <v>130757159</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,39 +3415,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490444</v>
+        <v>490482</v>
       </c>
       <c r="R27" t="n">
-        <v>6763770</v>
+        <v>6763574</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3479,7 +3474,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3489,12 +3484,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3521,7 +3511,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130757159</v>
+        <v>130789472</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3556,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490482</v>
+        <v>490450</v>
       </c>
       <c r="R28" t="n">
-        <v>6763574</v>
+        <v>6763926</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3591,7 +3581,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3601,7 +3591,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3610,25 +3600,26 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130789472</v>
+        <v>130754796</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3663,10 +3654,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490450</v>
+        <v>490463</v>
       </c>
       <c r="R29" t="n">
-        <v>6763926</v>
+        <v>6763939</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3698,7 +3689,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3708,7 +3699,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3717,29 +3708,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130754796</v>
+        <v>130755667</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3747,34 +3737,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490463</v>
+        <v>490444</v>
       </c>
       <c r="R30" t="n">
-        <v>6763939</v>
+        <v>6763770</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3817,6 +3812,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130789476</v>
+        <v>130789475</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490438</v>
+        <v>490441</v>
       </c>
       <c r="R31" t="n">
-        <v>6764018</v>
+        <v>6763984</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3951,45 +3951,50 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130789475</v>
+        <v>130757236</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490441</v>
+        <v>490467</v>
       </c>
       <c r="R32" t="n">
-        <v>6763984</v>
+        <v>6763573</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4021,7 +4026,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4031,7 +4036,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4040,29 +4045,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130757236</v>
+        <v>130757715</v>
       </c>
       <c r="B33" t="n">
-        <v>5177</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4070,21 +4074,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4095,14 +4099,14 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490467</v>
+        <v>490186</v>
       </c>
       <c r="R33" t="n">
-        <v>6763573</v>
+        <v>6763602</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4171,50 +4175,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130757715</v>
+        <v>130789476</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490186</v>
+        <v>490438</v>
       </c>
       <c r="R34" t="n">
-        <v>6763602</v>
+        <v>6764018</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4256,7 +4255,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4265,63 +4264,69 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130789468</v>
+        <v>130757247</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>5197</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490321</v>
+        <v>490467</v>
       </c>
       <c r="R35" t="n">
-        <v>6763593</v>
+        <v>6763573</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4353,7 +4358,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4363,7 +4368,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4372,69 +4377,63 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130757247</v>
+        <v>130754851</v>
       </c>
       <c r="B36" t="n">
-        <v>5197</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490467</v>
+        <v>490449</v>
       </c>
       <c r="R36" t="n">
-        <v>6763573</v>
+        <v>6763949</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4466,7 +4465,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4476,7 +4475,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4503,7 +4507,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130754851</v>
+        <v>130757412</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4538,10 +4542,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490449</v>
+        <v>490381</v>
       </c>
       <c r="R37" t="n">
-        <v>6763949</v>
+        <v>6763583</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4573,7 +4577,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4583,12 +4587,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4615,7 +4614,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130757412</v>
+        <v>130789468</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4650,10 +4649,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>490381</v>
+        <v>490321</v>
       </c>
       <c r="R38" t="n">
-        <v>6763583</v>
+        <v>6763593</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4685,7 +4684,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4695,7 +4694,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4704,25 +4703,26 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130789487</v>
+        <v>130789489</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>490472</v>
+        <v>490467</v>
       </c>
       <c r="R39" t="n">
-        <v>6763924</v>
+        <v>6763913</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4830,7 +4830,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130789489</v>
+        <v>130789487</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490467</v>
+        <v>490472</v>
       </c>
       <c r="R40" t="n">
-        <v>6763913</v>
+        <v>6763924</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5153,10 +5153,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130757564</v>
+        <v>130755062</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5164,34 +5164,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490230</v>
+        <v>490434</v>
       </c>
       <c r="R43" t="n">
-        <v>6763582</v>
+        <v>6764045</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5223,7 +5228,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5233,7 +5238,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5260,10 +5270,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755062</v>
+        <v>130757564</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5271,39 +5281,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490434</v>
+        <v>490230</v>
       </c>
       <c r="R44" t="n">
-        <v>6764045</v>
+        <v>6763582</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5335,7 +5340,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5345,12 +5350,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>1 bild</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5708,7 +5708,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130758032</v>
+        <v>130789459</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5739,14 +5739,14 @@
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490175</v>
+        <v>490499</v>
       </c>
       <c r="R48" t="n">
-        <v>6763613</v>
+        <v>6763662</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5788,7 +5788,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>vid gran 250 år plus</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5797,28 +5802,29 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130758572</v>
+        <v>130758032</v>
       </c>
       <c r="B49" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5826,39 +5832,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490494</v>
+        <v>490175</v>
       </c>
       <c r="R49" t="n">
-        <v>6763540</v>
+        <v>6763613</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5927,10 +5928,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130789459</v>
+        <v>130758572</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5938,34 +5939,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>490499</v>
+        <v>490494</v>
       </c>
       <c r="R50" t="n">
-        <v>6763662</v>
+        <v>6763540</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5997,7 +6003,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6007,12 +6013,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>14:27</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>vid gran 250 år plus</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6021,19 +6022,18 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130754287</v>
+        <v>130789471</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,39 +911,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490501</v>
+        <v>490498</v>
       </c>
       <c r="R4" t="n">
-        <v>6763773</v>
+        <v>6763669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -975,7 +970,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -985,7 +980,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -994,28 +989,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130789471</v>
+        <v>130754287</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1023,34 +1019,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490498</v>
+        <v>490501</v>
       </c>
       <c r="R5" t="n">
-        <v>6763669</v>
+        <v>6763773</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1082,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1092,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1101,19 +1102,18 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130789496</v>
+        <v>130789477</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490526</v>
+        <v>490435</v>
       </c>
       <c r="R9" t="n">
-        <v>6763737</v>
+        <v>6764047</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789477</v>
+        <v>130789496</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490435</v>
+        <v>490526</v>
       </c>
       <c r="R11" t="n">
-        <v>6764047</v>
+        <v>6763737</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1766,45 +1766,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130758082</v>
+        <v>130757655</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490186</v>
+        <v>490214</v>
       </c>
       <c r="R12" t="n">
-        <v>6763602</v>
+        <v>6763590</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1873,50 +1878,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130757655</v>
+        <v>130758082</v>
       </c>
       <c r="B13" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490214</v>
+        <v>490186</v>
       </c>
       <c r="R13" t="n">
-        <v>6763590</v>
+        <v>6763602</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130789473</v>
+        <v>130757199</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490444</v>
+        <v>490467</v>
       </c>
       <c r="R18" t="n">
-        <v>6763969</v>
+        <v>6763573</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2527,26 +2527,25 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130757199</v>
+        <v>130789473</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2581,10 +2580,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490467</v>
+        <v>490444</v>
       </c>
       <c r="R19" t="n">
-        <v>6763573</v>
+        <v>6763969</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2616,7 +2615,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2626,7 +2625,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2635,18 +2634,19 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130789474</v>
+        <v>130755955</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490445</v>
+        <v>490486</v>
       </c>
       <c r="R22" t="n">
-        <v>6763972</v>
+        <v>6763627</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2956,26 +2956,25 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130755955</v>
+        <v>130789474</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3010,10 +3009,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490486</v>
+        <v>490445</v>
       </c>
       <c r="R23" t="n">
-        <v>6763627</v>
+        <v>6763972</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3045,7 +3044,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3055,7 +3054,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3064,25 +3063,26 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130754985</v>
+        <v>130789495</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3113,14 +3113,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>490434</v>
+        <v>490496</v>
       </c>
       <c r="R24" t="n">
-        <v>6764045</v>
+        <v>6763849</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3171,25 +3171,26 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130754896</v>
+        <v>130754985</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3224,10 +3225,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490446</v>
+        <v>490434</v>
       </c>
       <c r="R25" t="n">
-        <v>6764008</v>
+        <v>6764045</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3296,7 +3297,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130789495</v>
+        <v>130754896</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3327,14 +3328,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490496</v>
+        <v>490446</v>
       </c>
       <c r="R26" t="n">
-        <v>6763849</v>
+        <v>6764008</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3376,7 +3377,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3385,29 +3386,28 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130757159</v>
+        <v>130755667</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,34 +3415,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490482</v>
+        <v>490444</v>
       </c>
       <c r="R27" t="n">
-        <v>6763574</v>
+        <v>6763770</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,7 +3479,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3484,7 +3489,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3511,7 +3521,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130789472</v>
+        <v>130757159</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3546,10 +3556,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490450</v>
+        <v>490482</v>
       </c>
       <c r="R28" t="n">
-        <v>6763926</v>
+        <v>6763574</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3581,7 +3591,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3591,7 +3601,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3600,26 +3610,25 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130754796</v>
+        <v>130789472</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3654,10 +3663,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490463</v>
+        <v>490450</v>
       </c>
       <c r="R29" t="n">
-        <v>6763939</v>
+        <v>6763926</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3699,7 +3708,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3708,28 +3717,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755667</v>
+        <v>130754796</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3737,39 +3747,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490444</v>
+        <v>490463</v>
       </c>
       <c r="R30" t="n">
-        <v>6763770</v>
+        <v>6763939</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3812,11 +3817,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130789475</v>
+        <v>130789476</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490441</v>
+        <v>490438</v>
       </c>
       <c r="R31" t="n">
-        <v>6763984</v>
+        <v>6764018</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3951,50 +3951,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130757236</v>
+        <v>130789475</v>
       </c>
       <c r="B32" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490467</v>
+        <v>490441</v>
       </c>
       <c r="R32" t="n">
-        <v>6763573</v>
+        <v>6763984</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4026,7 +4021,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4036,7 +4031,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4045,28 +4040,29 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130757715</v>
+        <v>130757236</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>5177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4074,21 +4070,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4099,14 +4095,14 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490186</v>
+        <v>490467</v>
       </c>
       <c r="R33" t="n">
-        <v>6763602</v>
+        <v>6763573</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4175,45 +4171,50 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130789476</v>
+        <v>130757715</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490438</v>
+        <v>490186</v>
       </c>
       <c r="R34" t="n">
-        <v>6764018</v>
+        <v>6763602</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4245,7 +4246,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4255,7 +4256,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,19 +4265,18 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -5153,10 +5153,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755062</v>
+        <v>130757564</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5164,39 +5164,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490434</v>
+        <v>490230</v>
       </c>
       <c r="R43" t="n">
-        <v>6764045</v>
+        <v>6763582</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5228,7 +5223,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5238,12 +5233,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>1 bild</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5270,10 +5260,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130757564</v>
+        <v>130755062</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5281,34 +5271,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490230</v>
+        <v>490434</v>
       </c>
       <c r="R44" t="n">
-        <v>6763582</v>
+        <v>6764045</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5340,7 +5335,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5350,7 +5345,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>1 bild</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5377,50 +5377,45 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130758028</v>
+        <v>130754014</v>
       </c>
       <c r="B45" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>490175</v>
+        <v>490548</v>
       </c>
       <c r="R45" t="n">
-        <v>6763613</v>
+        <v>6763654</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5452,7 +5447,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5462,7 +5457,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5489,45 +5484,50 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130754014</v>
+        <v>130758028</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490548</v>
+        <v>490175</v>
       </c>
       <c r="R46" t="n">
-        <v>6763654</v>
+        <v>6763613</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6472,45 +6472,50 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130789494</v>
+        <v>130755323</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490480</v>
+        <v>490451</v>
       </c>
       <c r="R55" t="n">
-        <v>6763872</v>
+        <v>6763833</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6542,7 +6547,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6552,7 +6557,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6561,69 +6566,63 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130755323</v>
+        <v>130789494</v>
       </c>
       <c r="B56" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490451</v>
+        <v>490480</v>
       </c>
       <c r="R56" t="n">
-        <v>6763833</v>
+        <v>6763872</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6655,7 +6654,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6665,7 +6664,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6674,18 +6673,19 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -1550,7 +1550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130789482</v>
+        <v>130789496</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490451</v>
+        <v>490526</v>
       </c>
       <c r="R10" t="n">
-        <v>6764011</v>
+        <v>6763737</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130789496</v>
+        <v>130789482</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490526</v>
+        <v>490451</v>
       </c>
       <c r="R11" t="n">
-        <v>6763737</v>
+        <v>6764011</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1766,50 +1766,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130757655</v>
+        <v>130758082</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490214</v>
+        <v>490186</v>
       </c>
       <c r="R12" t="n">
-        <v>6763590</v>
+        <v>6763602</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1878,45 +1873,50 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130758082</v>
+        <v>130757655</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>490186</v>
+        <v>490214</v>
       </c>
       <c r="R13" t="n">
-        <v>6763602</v>
+        <v>6763590</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130757199</v>
+        <v>130789473</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490467</v>
+        <v>490444</v>
       </c>
       <c r="R18" t="n">
-        <v>6763573</v>
+        <v>6763969</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2527,25 +2527,26 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130789473</v>
+        <v>130757425</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2580,10 +2581,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490444</v>
+        <v>490361</v>
       </c>
       <c r="R19" t="n">
-        <v>6763969</v>
+        <v>6763574</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2625,7 +2626,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2634,26 +2635,25 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130757425</v>
+        <v>130754307</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490361</v>
+        <v>490501</v>
       </c>
       <c r="R20" t="n">
-        <v>6763574</v>
+        <v>6763773</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130754307</v>
+        <v>130757199</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490501</v>
+        <v>490467</v>
       </c>
       <c r="R21" t="n">
-        <v>6763773</v>
+        <v>6763573</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130755955</v>
+        <v>130789474</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490486</v>
+        <v>490445</v>
       </c>
       <c r="R22" t="n">
-        <v>6763627</v>
+        <v>6763972</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2956,25 +2956,26 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130789474</v>
+        <v>130755955</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3009,10 +3010,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>490445</v>
+        <v>490486</v>
       </c>
       <c r="R23" t="n">
-        <v>6763972</v>
+        <v>6763627</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3054,7 +3055,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3063,19 +3064,18 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755667</v>
+        <v>130757159</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3415,39 +3415,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490444</v>
+        <v>490482</v>
       </c>
       <c r="R27" t="n">
-        <v>6763770</v>
+        <v>6763574</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3479,7 +3474,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3489,12 +3484,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2 bilder</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3521,7 +3511,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130757159</v>
+        <v>130789472</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3556,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490482</v>
+        <v>490450</v>
       </c>
       <c r="R28" t="n">
-        <v>6763574</v>
+        <v>6763926</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3591,7 +3581,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3601,7 +3591,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3610,25 +3600,26 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130789472</v>
+        <v>130754796</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3663,10 +3654,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490450</v>
+        <v>490463</v>
       </c>
       <c r="R29" t="n">
-        <v>6763926</v>
+        <v>6763939</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3698,7 +3689,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3708,7 +3699,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3717,29 +3708,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130754796</v>
+        <v>130755667</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3747,34 +3737,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490463</v>
+        <v>490444</v>
       </c>
       <c r="R30" t="n">
-        <v>6763939</v>
+        <v>6763770</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3817,6 +3812,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2 bilder</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3843,45 +3843,50 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130789476</v>
+        <v>130757715</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490438</v>
+        <v>490186</v>
       </c>
       <c r="R31" t="n">
-        <v>6764018</v>
+        <v>6763602</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3913,7 +3918,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3923,7 +3928,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3932,26 +3937,25 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130789475</v>
+        <v>130789476</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3986,10 +3990,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490441</v>
+        <v>490438</v>
       </c>
       <c r="R32" t="n">
-        <v>6763984</v>
+        <v>6764018</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4021,7 +4025,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4031,7 +4035,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4059,50 +4063,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130757236</v>
+        <v>130789475</v>
       </c>
       <c r="B33" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490467</v>
+        <v>490441</v>
       </c>
       <c r="R33" t="n">
-        <v>6763573</v>
+        <v>6763984</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4134,7 +4133,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4144,7 +4143,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4153,28 +4152,29 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130757715</v>
+        <v>130757236</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>5177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4182,21 +4182,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4207,14 +4207,14 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490186</v>
+        <v>490467</v>
       </c>
       <c r="R34" t="n">
-        <v>6763602</v>
+        <v>6763573</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4283,50 +4283,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130757247</v>
+        <v>130754851</v>
       </c>
       <c r="B35" t="n">
-        <v>5197</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490467</v>
+        <v>490449</v>
       </c>
       <c r="R35" t="n">
-        <v>6763573</v>
+        <v>6763949</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4358,7 +4353,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4368,7 +4363,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>1 bild. På tallstam</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4395,7 +4395,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130754851</v>
+        <v>130757412</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490449</v>
+        <v>490381</v>
       </c>
       <c r="R36" t="n">
-        <v>6763949</v>
+        <v>6763583</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4475,12 +4475,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>1 bild. På tallstam</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4507,7 +4502,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130757412</v>
+        <v>130789468</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4542,10 +4537,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>490381</v>
+        <v>490321</v>
       </c>
       <c r="R37" t="n">
-        <v>6763583</v>
+        <v>6763593</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4577,7 +4572,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4587,7 +4582,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4596,63 +4591,69 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130789468</v>
+        <v>130757247</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>5197</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>490321</v>
+        <v>490467</v>
       </c>
       <c r="R38" t="n">
-        <v>6763593</v>
+        <v>6763573</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4684,7 +4685,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4694,7 +4695,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4703,19 +4704,18 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
@@ -5484,50 +5484,45 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130758028</v>
+        <v>130754953</v>
       </c>
       <c r="B46" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Brunnvasselänget, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>490175</v>
+        <v>490440</v>
       </c>
       <c r="R46" t="n">
-        <v>6763613</v>
+        <v>6764028</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5559,7 +5554,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5569,7 +5564,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>1 bild. Rikligt på gran</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5596,45 +5596,50 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130754953</v>
+        <v>130758028</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Brunnvasselänget, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>490440</v>
+        <v>490175</v>
       </c>
       <c r="R47" t="n">
-        <v>6764028</v>
+        <v>6763613</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5666,7 +5671,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5676,12 +5681,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>1 bild. Rikligt på gran</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6040,7 +6040,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130789491</v>
+        <v>130789492</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6078,7 +6078,7 @@
         <v>490481</v>
       </c>
       <c r="R51" t="n">
-        <v>6763891</v>
+        <v>6763889</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6148,7 +6148,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130789493</v>
+        <v>130789491</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>490482</v>
+        <v>490481</v>
       </c>
       <c r="R52" t="n">
-        <v>6763883</v>
+        <v>6763891</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6256,7 +6256,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130789498</v>
+        <v>130789493</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6291,10 +6291,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>490523</v>
+        <v>490482</v>
       </c>
       <c r="R53" t="n">
-        <v>6763700</v>
+        <v>6763883</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130789492</v>
+        <v>130789498</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490481</v>
+        <v>490523</v>
       </c>
       <c r="R54" t="n">
-        <v>6763889</v>
+        <v>6763700</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6472,50 +6472,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130755323</v>
+        <v>130789494</v>
       </c>
       <c r="B55" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Prikattmyren, Dlr</t>
+          <t>Kråkbackarna, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490451</v>
+        <v>490480</v>
       </c>
       <c r="R55" t="n">
-        <v>6763833</v>
+        <v>6763872</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6547,7 +6542,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6557,7 +6552,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6566,63 +6561,69 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Håkan Thenander</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Håkan Thenander, Bo karlstens</t>
+          <t>Bo karlstens, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130789494</v>
+        <v>130755323</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Kråkbackarna, Dlr</t>
+          <t>Prikattmyren, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490480</v>
+        <v>490451</v>
       </c>
       <c r="R56" t="n">
-        <v>6763872</v>
+        <v>6763833</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6654,7 +6655,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6664,7 +6665,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6673,19 +6674,18 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Håkan Thenander</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bo karlstens, Håkan Thenander</t>
+          <t>Håkan Thenander, Bo karlstens</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>

--- a/artfynd/A 62154-2025 artfynd.xlsx
+++ b/artfynd/A 62154-2025 artfynd.xlsx
@@ -6695,7 +6695,7 @@
         <v>130817408</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
